--- a/docs/shr-core-Condition.xlsx
+++ b/docs/shr-core-Condition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="301">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,8 @@
   </si>
   <si>
     <t>A condition that is or may be present in a subject. 'Condition' is interpreted broadly and could be a disorder, abnormality, problem, injury, complaint, functionality, illness, disease, ailment, sickness, affliction, upset, difficulty, disorder, symptom, worry, or trouble.
-SHR Condition uses the SHR BodySite structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
+The Observation-based class, ConditionAbsent, should be used to describe conditions that are not present or negative findings.
+SHR Condition uses the SHR BodyLocation structure that includes not only a code, but optional laterality, direction, clock direction, and distance. If included, the distance is measured from the location specified by the code, laterality, and direction.</t>
   </si>
   <si>
     <t xml:space="preserve">arg-1:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error. Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {clinicalStatus.exists() = (verificationStatus != 'entered-in-error')}
@@ -410,7 +411,27 @@
     <t>Condition.extension</t>
   </si>
   <si>
+    <t>Condition:argoprofile.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>dateofdiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DateOfDiagnosis-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The date the disease was first clinically recognized with sufficient certainty, regardless of whether it was fully characterized at that time.</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -843,7 +864,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>.targetBodySiteCode</t>
@@ -855,71 +876,24 @@
     <t>Condition.bodySite.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
+    <t>locationqualifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LocationQualifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>laterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Laterality-extension]]} {[]}
+    <t>Additional information, such as laterality or direction, that helps define the body location.</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Landmark-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Anatomical location or specimen further detailing the side(s) of interest.</t>
-  </si>
-  <si>
-    <t>anatomicaldirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Anatomical location or specimen further detailing directionality.</t>
-  </si>
-  <si>
-    <t>clockdirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockDirection-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A direction indicated by an angle relative to 12 o'clock.</t>
-  </si>
-  <si>
-    <t>commentordescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-CommentOrDescription-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A text note containing additional details, explanation, description, comment, or summarization.</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Attachment-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A file that contains audio, video, image, or similar content.</t>
-  </si>
-  <si>
-    <t>distancefromlandmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DistanceFromLandmark-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>An anatomical landmark that helps determine a body location.</t>
   </si>
   <si>
     <t>Condition.bodySite.coding</t>
@@ -1129,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1139,7 +1113,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.48046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2822,7 +2796,9 @@
       <c r="A16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>65</v>
       </c>
@@ -2849,7 +2825,7 @@
         <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>69</v>
@@ -2890,16 +2866,14 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>125</v>
@@ -2931,40 +2905,38 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3013,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3034,7 +3006,7 @@
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3042,11 +3014,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3059,24 +3031,24 @@
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3124,7 +3096,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3145,15 +3117,15 @@
         <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>136</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3161,31 +3133,33 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3233,13 +3207,13 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
@@ -3248,21 +3222,21 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AM19" t="s" s="2">
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>143</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3270,32 +3244,30 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3344,10 +3316,10 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3359,21 +3331,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3396,15 +3368,17 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3453,7 +3427,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3471,18 +3445,18 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3505,17 +3479,15 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3564,7 +3536,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3582,18 +3554,18 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL22" t="s" s="2">
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3601,30 +3573,32 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3649,11 +3623,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3671,10 +3647,10 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3686,21 +3662,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL23" t="s" s="2">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3714,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3723,17 +3699,15 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3758,11 +3732,11 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3780,10 +3754,10 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>50</v>
@@ -3795,21 +3769,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL24" t="s" s="2">
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3823,24 +3797,26 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3869,7 +3845,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3887,7 +3863,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3902,13 +3878,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>188</v>
@@ -3997,7 +3973,7 @@
         <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4015,13 +3991,13 @@
         <v>193</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>188</v>
-      </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>195</v>
       </c>
@@ -4031,22 +4007,22 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>196</v>
@@ -4054,9 +4030,7 @@
       <c r="L27" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4083,11 +4057,9 @@
       <c r="W27" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X27" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4108,7 +4080,7 @@
         <v>195</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>50</v>
@@ -4120,21 +4092,21 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4157,16 +4129,16 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4192,13 +4164,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4216,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4234,18 +4206,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4268,16 +4240,16 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4327,7 +4299,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4345,18 +4317,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4379,15 +4351,17 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4436,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4448,19 +4422,19 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -4485,16 +4459,16 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4557,7 +4531,7 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
@@ -4566,7 +4540,7 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4574,18 +4548,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4597,17 +4571,15 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4656,13 +4628,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4685,11 +4657,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4702,7 +4674,7 @@
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
@@ -4711,10 +4683,10 @@
         <v>66</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>69</v>
@@ -4767,7 +4739,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4788,7 +4760,7 @@
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4796,38 +4768,40 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4852,40 +4826,40 @@
         <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>40</v>
@@ -4894,10 +4868,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4905,7 +4879,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4928,13 +4902,13 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4961,13 +4935,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -4985,16 +4959,16 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
@@ -5003,10 +4977,10 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5014,7 +4988,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5025,7 +4999,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5037,17 +5011,15 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5096,7 +5068,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5105,10 +5077,10 @@
         <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5136,7 +5108,7 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5145,18 +5117,20 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5211,13 +5185,13 @@
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
@@ -5226,7 +5200,7 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5234,18 +5208,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5257,17 +5231,15 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5316,13 +5288,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5345,11 +5317,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5362,7 +5334,7 @@
         <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
@@ -5371,10 +5343,10 @@
         <v>66</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>69</v>
@@ -5427,7 +5399,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5448,7 +5420,7 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5456,38 +5428,40 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5512,11 +5486,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
@@ -5534,16 +5510,16 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
@@ -5555,7 +5531,7 @@
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5574,7 +5550,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5586,13 +5562,13 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5619,13 +5595,11 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5649,10 +5623,10 @@
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
@@ -5664,7 +5638,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5672,7 +5646,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5695,17 +5669,15 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5730,11 +5702,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -5752,7 +5726,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5761,7 +5735,7 @@
         <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
@@ -5773,7 +5747,7 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5781,7 +5755,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5792,7 +5766,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5801,18 +5775,20 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5834,16 +5810,14 @@
         <v>40</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5860,11 +5834,15 @@
       <c r="AD43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE43" s="2"/>
+      <c r="AE43" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5878,7 +5856,7 @@
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5886,18 +5864,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -5909,17 +5887,15 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -5956,14 +5932,16 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB44" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AE44" s="2"/>
       <c r="AF44" t="s" s="2">
@@ -5991,13 +5969,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6016,13 +5992,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="K45" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6059,26 +6039,20 @@
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6092,7 +6066,7 @@
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
@@ -6100,10 +6074,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>40</v>
@@ -6125,11 +6099,11 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6180,7 +6154,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6209,10 +6183,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>40</v>
@@ -6234,11 +6208,11 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6289,7 +6263,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6318,11 +6292,9 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6340,17 +6312,23 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="K48" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="L48" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6397,15 +6375,11 @@
       <c r="AD48" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE48" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="AE48" s="2"/>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6416,10 +6390,10 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6427,11 +6401,9 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6440,7 +6412,7 @@
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6449,17 +6421,23 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="K49" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6506,15 +6484,11 @@
       <c r="AD49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE49" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="AE49" s="2"/>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG49" s="2"/>
       <c r="AH49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6525,10 +6499,10 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6536,11 +6510,9 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6549,7 +6521,7 @@
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6558,14 +6530,16 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="L50" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6589,7 +6563,7 @@
         <v>40</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>40</v>
@@ -6616,13 +6590,13 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
@@ -6634,344 +6608,17 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE51" s="2"/>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" s="2"/>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE52" s="2"/>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" s="2"/>
-      <c r="AH52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM53" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM53">
+  <autoFilter ref="A1:AM50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6981,7 +6628,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
